--- a/Testing/BiLSTM_BTC_result.xlsx
+++ b/Testing/BiLSTM_BTC_result.xlsx
@@ -437,13 +437,13 @@
         <v>50</v>
       </c>
       <c r="E1" t="n">
-        <v>681.1301011499193</v>
+        <v>698.5234883021787</v>
       </c>
       <c r="F1" t="n">
-        <v>589.2629086665476</v>
+        <v>622.317582143284</v>
       </c>
       <c r="G1" t="n">
-        <v>3.0867206734173</v>
+        <v>3.239060467497107</v>
       </c>
     </row>
     <row r="2">
@@ -462,13 +462,13 @@
         <v>60</v>
       </c>
       <c r="E2" t="n">
-        <v>421.8519002555145</v>
+        <v>475.127583943328</v>
       </c>
       <c r="F2" t="n">
-        <v>356.850766863293</v>
+        <v>403.7813227996535</v>
       </c>
       <c r="G2" t="n">
-        <v>1.844396629187447</v>
+        <v>2.093265928992358</v>
       </c>
     </row>
     <row r="3">
@@ -487,13 +487,13 @@
         <v>100</v>
       </c>
       <c r="E3" t="n">
-        <v>493.9961625091142</v>
+        <v>634.8145572982118</v>
       </c>
       <c r="F3" t="n">
-        <v>426.5837351479954</v>
+        <v>560.948258671427</v>
       </c>
       <c r="G3" t="n">
-        <v>2.217758007567038</v>
+        <v>2.915031804193361</v>
       </c>
     </row>
     <row r="4">
@@ -512,13 +512,13 @@
         <v>50</v>
       </c>
       <c r="E4" t="n">
-        <v>965.1049425358328</v>
+        <v>873.4655625709014</v>
       </c>
       <c r="F4" t="n">
-        <v>900.3861524225513</v>
+        <v>808.4899114782518</v>
       </c>
       <c r="G4" t="n">
-        <v>4.680678843614316</v>
+        <v>4.206122460762147</v>
       </c>
     </row>
     <row r="5">
@@ -537,13 +537,13 @@
         <v>60</v>
       </c>
       <c r="E5" t="n">
-        <v>413.213962793564</v>
+        <v>375.1751567653773</v>
       </c>
       <c r="F5" t="n">
-        <v>347.1794733429403</v>
+        <v>315.4046457113415</v>
       </c>
       <c r="G5" t="n">
-        <v>1.800236342204927</v>
+        <v>1.619905840113003</v>
       </c>
     </row>
     <row r="6">
@@ -562,13 +562,13 @@
         <v>100</v>
       </c>
       <c r="E6" t="n">
-        <v>912.5726598415063</v>
+        <v>874.9663831420024</v>
       </c>
       <c r="F6" t="n">
-        <v>846.2458578590307</v>
+        <v>817.3198459159911</v>
       </c>
       <c r="G6" t="n">
-        <v>4.403916633039235</v>
+        <v>4.24552010309018</v>
       </c>
     </row>
     <row r="7">
@@ -587,13 +587,13 @@
         <v>50</v>
       </c>
       <c r="E7" t="n">
-        <v>719.6906829597089</v>
+        <v>698.5785859927123</v>
       </c>
       <c r="F7" t="n">
-        <v>644.8211225684433</v>
+        <v>641.8483248685473</v>
       </c>
       <c r="G7" t="n">
-        <v>3.361774500915919</v>
+        <v>3.325830840158345</v>
       </c>
     </row>
     <row r="8">
@@ -612,13 +612,13 @@
         <v>60</v>
       </c>
       <c r="E8" t="n">
-        <v>651.2399357641782</v>
+        <v>421.0145720959931</v>
       </c>
       <c r="F8" t="n">
-        <v>580.0481232438764</v>
+        <v>366.8654139952801</v>
       </c>
       <c r="G8" t="n">
-        <v>3.022838684777118</v>
+        <v>1.903861895614101</v>
       </c>
     </row>
     <row r="9">
@@ -637,13 +637,13 @@
         <v>100</v>
       </c>
       <c r="E9" t="n">
-        <v>667.2982127139787</v>
+        <v>601.4920314779822</v>
       </c>
       <c r="F9" t="n">
-        <v>593.1468456487154</v>
+        <v>542.2927417841784</v>
       </c>
       <c r="G9" t="n">
-        <v>3.09351180387472</v>
+        <v>2.815062870354472</v>
       </c>
     </row>
     <row r="10">
@@ -662,13 +662,13 @@
         <v>50</v>
       </c>
       <c r="E10" t="n">
-        <v>2462.289975827137</v>
+        <v>374.4992662054523</v>
       </c>
       <c r="F10" t="n">
-        <v>2404.139902557637</v>
+        <v>310.8141520599303</v>
       </c>
       <c r="G10" t="n">
-        <v>12.33007998043107</v>
+        <v>1.56342285370521</v>
       </c>
     </row>
     <row r="11">
@@ -687,13 +687,13 @@
         <v>60</v>
       </c>
       <c r="E11" t="n">
-        <v>424.0774338992268</v>
+        <v>322.3723846085423</v>
       </c>
       <c r="F11" t="n">
-        <v>355.5530907255649</v>
+        <v>267.4494501374284</v>
       </c>
       <c r="G11" t="n">
-        <v>1.867825607465155</v>
+        <v>1.380007890553275</v>
       </c>
     </row>
     <row r="12">
@@ -712,13 +712,13 @@
         <v>100</v>
       </c>
       <c r="E12" t="n">
-        <v>372.1835917812288</v>
+        <v>310.1208049280826</v>
       </c>
       <c r="F12" t="n">
-        <v>311.6731372628484</v>
+        <v>257.9204934497491</v>
       </c>
       <c r="G12" t="n">
-        <v>1.627085853664211</v>
+        <v>1.327739174074208</v>
       </c>
     </row>
     <row r="13">
@@ -737,13 +737,13 @@
         <v>50</v>
       </c>
       <c r="E13" t="n">
-        <v>2020.032173507541</v>
+        <v>291.5029133001788</v>
       </c>
       <c r="F13" t="n">
-        <v>1974.626577779775</v>
+        <v>243.9441159327197</v>
       </c>
       <c r="G13" t="n">
-        <v>10.10233029581436</v>
+        <v>1.270541371991133</v>
       </c>
     </row>
     <row r="14">
@@ -762,13 +762,13 @@
         <v>60</v>
       </c>
       <c r="E14" t="n">
-        <v>421.4290922215995</v>
+        <v>335.7905757557174</v>
       </c>
       <c r="F14" t="n">
-        <v>374.1148252956895</v>
+        <v>284.0767379003352</v>
       </c>
       <c r="G14" t="n">
-        <v>1.957230921842183</v>
+        <v>1.488581579297852</v>
       </c>
     </row>
     <row r="15">
@@ -787,13 +787,13 @@
         <v>100</v>
       </c>
       <c r="E15" t="n">
-        <v>340.3731361547758</v>
+        <v>350.2736895223684</v>
       </c>
       <c r="F15" t="n">
-        <v>290.2775766090303</v>
+        <v>298.6462478937626</v>
       </c>
       <c r="G15" t="n">
-        <v>1.52144518076975</v>
+        <v>1.565013745729113</v>
       </c>
     </row>
     <row r="16">
@@ -812,13 +812,13 @@
         <v>50</v>
       </c>
       <c r="E16" t="n">
-        <v>1245.579781128187</v>
+        <v>290.7639227718086</v>
       </c>
       <c r="F16" t="n">
-        <v>1196.8731764079</v>
+        <v>246.8879193206265</v>
       </c>
       <c r="G16" t="n">
-        <v>6.183765205449944</v>
+        <v>1.285065374080395</v>
       </c>
     </row>
     <row r="17">
@@ -837,13 +837,13 @@
         <v>60</v>
       </c>
       <c r="E17" t="n">
-        <v>255.8386444677459</v>
+        <v>321.2623296841296</v>
       </c>
       <c r="F17" t="n">
-        <v>214.2520111971663</v>
+        <v>275.4260374641499</v>
       </c>
       <c r="G17" t="n">
-        <v>1.113153820069748</v>
+        <v>1.438398178964835</v>
       </c>
     </row>
     <row r="18">
@@ -862,13 +862,13 @@
         <v>100</v>
       </c>
       <c r="E18" t="n">
-        <v>263.5753704125727</v>
+        <v>333.4324277658465</v>
       </c>
       <c r="F18" t="n">
-        <v>220.1810470626201</v>
+        <v>286.4852513145323</v>
       </c>
       <c r="G18" t="n">
-        <v>1.142465459261183</v>
+        <v>1.49852656877179</v>
       </c>
     </row>
     <row r="19">
@@ -887,13 +887,13 @@
         <v>50</v>
       </c>
       <c r="E19" t="n">
-        <v>1258.189244705009</v>
+        <v>1432.220455874153</v>
       </c>
       <c r="F19" t="n">
-        <v>1126.736849851403</v>
+        <v>1354.808609225619</v>
       </c>
       <c r="G19" t="n">
-        <v>5.467966317780372</v>
+        <v>6.662500656845187</v>
       </c>
     </row>
     <row r="20">
@@ -912,13 +912,13 @@
         <v>60</v>
       </c>
       <c r="E20" t="n">
-        <v>751.2877421770037</v>
+        <v>1092.693142123811</v>
       </c>
       <c r="F20" t="n">
-        <v>587.3317437334873</v>
+        <v>992.0816891655707</v>
       </c>
       <c r="G20" t="n">
-        <v>2.756096736633138</v>
+        <v>4.820045141509907</v>
       </c>
     </row>
     <row r="21">
@@ -937,13 +937,13 @@
         <v>100</v>
       </c>
       <c r="E21" t="n">
-        <v>583.9557513663866</v>
+        <v>578.4540819340606</v>
       </c>
       <c r="F21" t="n">
-        <v>422.2928721106508</v>
+        <v>429.1403836340813</v>
       </c>
       <c r="G21" t="n">
-        <v>1.968776553842363</v>
+        <v>1.985420352445114</v>
       </c>
     </row>
     <row r="22">
@@ -962,13 +962,13 @@
         <v>50</v>
       </c>
       <c r="E22" t="n">
-        <v>699.1418229125792</v>
+        <v>716.4548805811596</v>
       </c>
       <c r="F22" t="n">
-        <v>510.2127034552109</v>
+        <v>515.9982840956616</v>
       </c>
       <c r="G22" t="n">
-        <v>2.443195198147303</v>
+        <v>2.496859972868583</v>
       </c>
     </row>
     <row r="23">
@@ -987,13 +987,13 @@
         <v>60</v>
       </c>
       <c r="E23" t="n">
-        <v>684.8522537370883</v>
+        <v>839.4037969001899</v>
       </c>
       <c r="F23" t="n">
-        <v>533.7959625210128</v>
+        <v>663.8148070775559</v>
       </c>
       <c r="G23" t="n">
-        <v>2.503288490686922</v>
+        <v>3.339570024487245</v>
       </c>
     </row>
     <row r="24">
@@ -1012,13 +1012,13 @@
         <v>100</v>
       </c>
       <c r="E24" t="n">
-        <v>909.0291535925511</v>
+        <v>1040.938058432879</v>
       </c>
       <c r="F24" t="n">
-        <v>764.4373508645544</v>
+        <v>954.9824015221683</v>
       </c>
       <c r="G24" t="n">
-        <v>3.669805916374992</v>
+        <v>4.694909902208498</v>
       </c>
     </row>
     <row r="25">
@@ -1037,13 +1037,13 @@
         <v>50</v>
       </c>
       <c r="E25" t="n">
-        <v>670.2153663452908</v>
+        <v>699.2036705099464</v>
       </c>
       <c r="F25" t="n">
-        <v>536.6978675027027</v>
+        <v>537.1007044021862</v>
       </c>
       <c r="G25" t="n">
-        <v>2.566966355579325</v>
+        <v>2.65463862057649</v>
       </c>
     </row>
     <row r="26">
@@ -1062,13 +1062,13 @@
         <v>60</v>
       </c>
       <c r="E26" t="n">
-        <v>483.7904366699545</v>
+        <v>536.0005143079031</v>
       </c>
       <c r="F26" t="n">
-        <v>376.5808511647459</v>
+        <v>400.8429274468236</v>
       </c>
       <c r="G26" t="n">
-        <v>1.863743234009417</v>
+        <v>1.91661980661589</v>
       </c>
     </row>
     <row r="27">
@@ -1087,13 +1087,13 @@
         <v>100</v>
       </c>
       <c r="E27" t="n">
-        <v>766.4110656405072</v>
+        <v>753.2475917538695</v>
       </c>
       <c r="F27" t="n">
-        <v>646.4473106838379</v>
+        <v>595.0274736272098</v>
       </c>
       <c r="G27" t="n">
-        <v>3.099186871665002</v>
+        <v>2.961325607106315</v>
       </c>
     </row>
   </sheetData>

--- a/Testing/BiLSTM_BTC_result.xlsx
+++ b/Testing/BiLSTM_BTC_result.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -428,7 +428,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C1" t="n">
         <v>25</v>
@@ -437,13 +437,13 @@
         <v>50</v>
       </c>
       <c r="E1" t="n">
-        <v>698.5234883021787</v>
+        <v>597.0932997844639</v>
       </c>
       <c r="F1" t="n">
-        <v>622.317582143284</v>
+        <v>517.8894911119738</v>
       </c>
       <c r="G1" t="n">
-        <v>3.239060467497107</v>
+        <v>2.704452239705565</v>
       </c>
     </row>
     <row r="2">
@@ -453,7 +453,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C2" t="n">
         <v>25</v>
@@ -462,13 +462,13 @@
         <v>60</v>
       </c>
       <c r="E2" t="n">
-        <v>475.127583943328</v>
+        <v>273.8590400953963</v>
       </c>
       <c r="F2" t="n">
-        <v>403.7813227996535</v>
+        <v>208.97824867053</v>
       </c>
       <c r="G2" t="n">
-        <v>2.093265928992358</v>
+        <v>1.06011577416861</v>
       </c>
     </row>
     <row r="3">
@@ -478,7 +478,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C3" t="n">
         <v>25</v>
@@ -487,13 +487,13 @@
         <v>100</v>
       </c>
       <c r="E3" t="n">
-        <v>634.8145572982118</v>
+        <v>1012.061830361792</v>
       </c>
       <c r="F3" t="n">
-        <v>560.948258671427</v>
+        <v>920.4090335205532</v>
       </c>
       <c r="G3" t="n">
-        <v>2.915031804193361</v>
+        <v>4.805380112659433</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C4" t="n">
         <v>50</v>
@@ -512,13 +512,13 @@
         <v>50</v>
       </c>
       <c r="E4" t="n">
-        <v>873.4655625709014</v>
+        <v>225.2413675172795</v>
       </c>
       <c r="F4" t="n">
-        <v>808.4899114782518</v>
+        <v>130.2540433048516</v>
       </c>
       <c r="G4" t="n">
-        <v>4.206122460762147</v>
+        <v>0.6378329597140239</v>
       </c>
     </row>
     <row r="5">
@@ -528,7 +528,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C5" t="n">
         <v>50</v>
@@ -537,13 +537,13 @@
         <v>60</v>
       </c>
       <c r="E5" t="n">
-        <v>375.1751567653773</v>
+        <v>242.168563917004</v>
       </c>
       <c r="F5" t="n">
-        <v>315.4046457113415</v>
+        <v>137.2133038808557</v>
       </c>
       <c r="G5" t="n">
-        <v>1.619905840113003</v>
+        <v>0.6758830510558</v>
       </c>
     </row>
     <row r="6">
@@ -553,7 +553,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C6" t="n">
         <v>50</v>
@@ -562,13 +562,13 @@
         <v>100</v>
       </c>
       <c r="E6" t="n">
-        <v>874.9663831420024</v>
+        <v>286.6128490816907</v>
       </c>
       <c r="F6" t="n">
-        <v>817.3198459159911</v>
+        <v>175.7977170022708</v>
       </c>
       <c r="G6" t="n">
-        <v>4.24552010309018</v>
+        <v>0.8513468061112263</v>
       </c>
     </row>
     <row r="7">
@@ -578,7 +578,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C7" t="n">
         <v>100</v>
@@ -587,13 +587,13 @@
         <v>50</v>
       </c>
       <c r="E7" t="n">
-        <v>698.5785859927123</v>
+        <v>226.3989598609352</v>
       </c>
       <c r="F7" t="n">
-        <v>641.8483248685473</v>
+        <v>136.7949078110061</v>
       </c>
       <c r="G7" t="n">
-        <v>3.325830840158345</v>
+        <v>0.6766108886838804</v>
       </c>
     </row>
     <row r="8">
@@ -603,7 +603,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C8" t="n">
         <v>100</v>
@@ -612,13 +612,13 @@
         <v>60</v>
       </c>
       <c r="E8" t="n">
-        <v>421.0145720959931</v>
+        <v>296.6693327468993</v>
       </c>
       <c r="F8" t="n">
-        <v>366.8654139952801</v>
+        <v>262.725647787704</v>
       </c>
       <c r="G8" t="n">
-        <v>1.903861895614101</v>
+        <v>1.323390040365327</v>
       </c>
     </row>
     <row r="9">
@@ -628,7 +628,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C9" t="n">
         <v>100</v>
@@ -637,13 +637,13 @@
         <v>100</v>
       </c>
       <c r="E9" t="n">
-        <v>601.4920314779822</v>
+        <v>224.8525346505845</v>
       </c>
       <c r="F9" t="n">
-        <v>542.2927417841784</v>
+        <v>154.0762873745219</v>
       </c>
       <c r="G9" t="n">
-        <v>2.815062870354472</v>
+        <v>0.7577059564190729</v>
       </c>
     </row>
     <row r="10">
@@ -653,7 +653,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="C10" t="n">
         <v>25</v>
@@ -662,13 +662,13 @@
         <v>50</v>
       </c>
       <c r="E10" t="n">
-        <v>374.4992662054523</v>
+        <v>698.5234883021787</v>
       </c>
       <c r="F10" t="n">
-        <v>310.8141520599303</v>
+        <v>622.317582143284</v>
       </c>
       <c r="G10" t="n">
-        <v>1.56342285370521</v>
+        <v>3.239060467497107</v>
       </c>
     </row>
     <row r="11">
@@ -678,7 +678,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="C11" t="n">
         <v>25</v>
@@ -687,13 +687,13 @@
         <v>60</v>
       </c>
       <c r="E11" t="n">
-        <v>322.3723846085423</v>
+        <v>475.127583943328</v>
       </c>
       <c r="F11" t="n">
-        <v>267.4494501374284</v>
+        <v>403.7813227996535</v>
       </c>
       <c r="G11" t="n">
-        <v>1.380007890553275</v>
+        <v>2.093265928992358</v>
       </c>
     </row>
     <row r="12">
@@ -703,7 +703,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="C12" t="n">
         <v>25</v>
@@ -712,13 +712,13 @@
         <v>100</v>
       </c>
       <c r="E12" t="n">
-        <v>310.1208049280826</v>
+        <v>634.8145572982118</v>
       </c>
       <c r="F12" t="n">
-        <v>257.9204934497491</v>
+        <v>560.948258671427</v>
       </c>
       <c r="G12" t="n">
-        <v>1.327739174074208</v>
+        <v>2.915031804193361</v>
       </c>
     </row>
     <row r="13">
@@ -728,7 +728,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="C13" t="n">
         <v>50</v>
@@ -737,13 +737,13 @@
         <v>50</v>
       </c>
       <c r="E13" t="n">
-        <v>291.5029133001788</v>
+        <v>873.4655625709014</v>
       </c>
       <c r="F13" t="n">
-        <v>243.9441159327197</v>
+        <v>808.4899114782518</v>
       </c>
       <c r="G13" t="n">
-        <v>1.270541371991133</v>
+        <v>4.206122460762147</v>
       </c>
     </row>
     <row r="14">
@@ -753,7 +753,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="C14" t="n">
         <v>50</v>
@@ -762,13 +762,13 @@
         <v>60</v>
       </c>
       <c r="E14" t="n">
-        <v>335.7905757557174</v>
+        <v>375.1751567653773</v>
       </c>
       <c r="F14" t="n">
-        <v>284.0767379003352</v>
+        <v>315.4046457113415</v>
       </c>
       <c r="G14" t="n">
-        <v>1.488581579297852</v>
+        <v>1.619905840113003</v>
       </c>
     </row>
     <row r="15">
@@ -778,7 +778,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="C15" t="n">
         <v>50</v>
@@ -787,13 +787,13 @@
         <v>100</v>
       </c>
       <c r="E15" t="n">
-        <v>350.2736895223684</v>
+        <v>874.9663831420024</v>
       </c>
       <c r="F15" t="n">
-        <v>298.6462478937626</v>
+        <v>817.3198459159911</v>
       </c>
       <c r="G15" t="n">
-        <v>1.565013745729113</v>
+        <v>4.24552010309018</v>
       </c>
     </row>
     <row r="16">
@@ -803,7 +803,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="C16" t="n">
         <v>100</v>
@@ -812,13 +812,13 @@
         <v>50</v>
       </c>
       <c r="E16" t="n">
-        <v>290.7639227718086</v>
+        <v>698.5785859927123</v>
       </c>
       <c r="F16" t="n">
-        <v>246.8879193206265</v>
+        <v>641.8483248685473</v>
       </c>
       <c r="G16" t="n">
-        <v>1.285065374080395</v>
+        <v>3.325830840158345</v>
       </c>
     </row>
     <row r="17">
@@ -828,7 +828,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="C17" t="n">
         <v>100</v>
@@ -837,13 +837,13 @@
         <v>60</v>
       </c>
       <c r="E17" t="n">
-        <v>321.2623296841296</v>
+        <v>421.0145720959931</v>
       </c>
       <c r="F17" t="n">
-        <v>275.4260374641499</v>
+        <v>366.8654139952801</v>
       </c>
       <c r="G17" t="n">
-        <v>1.438398178964835</v>
+        <v>1.903861895614101</v>
       </c>
     </row>
     <row r="18">
@@ -853,7 +853,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="C18" t="n">
         <v>100</v>
@@ -862,13 +862,13 @@
         <v>100</v>
       </c>
       <c r="E18" t="n">
-        <v>333.4324277658465</v>
+        <v>601.4920314779822</v>
       </c>
       <c r="F18" t="n">
-        <v>286.4852513145323</v>
+        <v>542.2927417841784</v>
       </c>
       <c r="G18" t="n">
-        <v>1.49852656877179</v>
+        <v>2.815062870354472</v>
       </c>
     </row>
     <row r="19">
@@ -878,7 +878,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="C19" t="n">
         <v>25</v>
@@ -887,13 +887,13 @@
         <v>50</v>
       </c>
       <c r="E19" t="n">
-        <v>1432.220455874153</v>
+        <v>374.4992662054523</v>
       </c>
       <c r="F19" t="n">
-        <v>1354.808609225619</v>
+        <v>310.8141520599303</v>
       </c>
       <c r="G19" t="n">
-        <v>6.662500656845187</v>
+        <v>1.56342285370521</v>
       </c>
     </row>
     <row r="20">
@@ -903,7 +903,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="C20" t="n">
         <v>25</v>
@@ -912,13 +912,13 @@
         <v>60</v>
       </c>
       <c r="E20" t="n">
-        <v>1092.693142123811</v>
+        <v>322.3723846085423</v>
       </c>
       <c r="F20" t="n">
-        <v>992.0816891655707</v>
+        <v>267.4494501374284</v>
       </c>
       <c r="G20" t="n">
-        <v>4.820045141509907</v>
+        <v>1.380007890553275</v>
       </c>
     </row>
     <row r="21">
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="C21" t="n">
         <v>25</v>
@@ -937,13 +937,13 @@
         <v>100</v>
       </c>
       <c r="E21" t="n">
-        <v>578.4540819340606</v>
+        <v>310.1208049280826</v>
       </c>
       <c r="F21" t="n">
-        <v>429.1403836340813</v>
+        <v>257.9204934497491</v>
       </c>
       <c r="G21" t="n">
-        <v>1.985420352445114</v>
+        <v>1.327739174074208</v>
       </c>
     </row>
     <row r="22">
@@ -953,7 +953,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="C22" t="n">
         <v>50</v>
@@ -962,13 +962,13 @@
         <v>50</v>
       </c>
       <c r="E22" t="n">
-        <v>716.4548805811596</v>
+        <v>291.5029133001788</v>
       </c>
       <c r="F22" t="n">
-        <v>515.9982840956616</v>
+        <v>243.9441159327197</v>
       </c>
       <c r="G22" t="n">
-        <v>2.496859972868583</v>
+        <v>1.270541371991133</v>
       </c>
     </row>
     <row r="23">
@@ -978,7 +978,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="C23" t="n">
         <v>50</v>
@@ -987,13 +987,13 @@
         <v>60</v>
       </c>
       <c r="E23" t="n">
-        <v>839.4037969001899</v>
+        <v>335.7905757557174</v>
       </c>
       <c r="F23" t="n">
-        <v>663.8148070775559</v>
+        <v>284.0767379003352</v>
       </c>
       <c r="G23" t="n">
-        <v>3.339570024487245</v>
+        <v>1.488581579297852</v>
       </c>
     </row>
     <row r="24">
@@ -1003,7 +1003,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="C24" t="n">
         <v>50</v>
@@ -1012,13 +1012,13 @@
         <v>100</v>
       </c>
       <c r="E24" t="n">
-        <v>1040.938058432879</v>
+        <v>350.2736895223684</v>
       </c>
       <c r="F24" t="n">
-        <v>954.9824015221683</v>
+        <v>298.6462478937626</v>
       </c>
       <c r="G24" t="n">
-        <v>4.694909902208498</v>
+        <v>1.565013745729113</v>
       </c>
     </row>
     <row r="25">
@@ -1028,7 +1028,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="C25" t="n">
         <v>100</v>
@@ -1037,13 +1037,13 @@
         <v>50</v>
       </c>
       <c r="E25" t="n">
-        <v>699.2036705099464</v>
+        <v>290.7639227718086</v>
       </c>
       <c r="F25" t="n">
-        <v>537.1007044021862</v>
+        <v>246.8879193206265</v>
       </c>
       <c r="G25" t="n">
-        <v>2.65463862057649</v>
+        <v>1.285065374080395</v>
       </c>
     </row>
     <row r="26">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="C26" t="n">
         <v>100</v>
@@ -1062,13 +1062,13 @@
         <v>60</v>
       </c>
       <c r="E26" t="n">
-        <v>536.0005143079031</v>
+        <v>321.2623296841296</v>
       </c>
       <c r="F26" t="n">
-        <v>400.8429274468236</v>
+        <v>275.4260374641499</v>
       </c>
       <c r="G26" t="n">
-        <v>1.91661980661589</v>
+        <v>1.438398178964835</v>
       </c>
     </row>
     <row r="27">
@@ -1078,21 +1078,246 @@
         </is>
       </c>
       <c r="B27" t="n">
+        <v>64</v>
+      </c>
+      <c r="C27" t="n">
+        <v>100</v>
+      </c>
+      <c r="D27" t="n">
+        <v>100</v>
+      </c>
+      <c r="E27" t="n">
+        <v>333.4324277658465</v>
+      </c>
+      <c r="F27" t="n">
+        <v>286.4852513145323</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1.49852656877179</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>BiLSTM</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
         <v>128</v>
       </c>
-      <c r="C27" t="n">
-        <v>100</v>
-      </c>
-      <c r="D27" t="n">
-        <v>100</v>
-      </c>
-      <c r="E27" t="n">
+      <c r="C28" t="n">
+        <v>25</v>
+      </c>
+      <c r="D28" t="n">
+        <v>50</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1432.220455874153</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1354.808609225619</v>
+      </c>
+      <c r="G28" t="n">
+        <v>6.662500656845187</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>BiLSTM</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>128</v>
+      </c>
+      <c r="C29" t="n">
+        <v>25</v>
+      </c>
+      <c r="D29" t="n">
+        <v>60</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1092.693142123811</v>
+      </c>
+      <c r="F29" t="n">
+        <v>992.0816891655707</v>
+      </c>
+      <c r="G29" t="n">
+        <v>4.820045141509907</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>BiLSTM</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>128</v>
+      </c>
+      <c r="C30" t="n">
+        <v>25</v>
+      </c>
+      <c r="D30" t="n">
+        <v>100</v>
+      </c>
+      <c r="E30" t="n">
+        <v>578.4540819340606</v>
+      </c>
+      <c r="F30" t="n">
+        <v>429.1403836340813</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1.985420352445114</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>BiLSTM</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>128</v>
+      </c>
+      <c r="C31" t="n">
+        <v>50</v>
+      </c>
+      <c r="D31" t="n">
+        <v>50</v>
+      </c>
+      <c r="E31" t="n">
+        <v>716.4548805811596</v>
+      </c>
+      <c r="F31" t="n">
+        <v>515.9982840956616</v>
+      </c>
+      <c r="G31" t="n">
+        <v>2.496859972868583</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>BiLSTM</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>128</v>
+      </c>
+      <c r="C32" t="n">
+        <v>50</v>
+      </c>
+      <c r="D32" t="n">
+        <v>60</v>
+      </c>
+      <c r="E32" t="n">
+        <v>839.4037969001899</v>
+      </c>
+      <c r="F32" t="n">
+        <v>663.8148070775559</v>
+      </c>
+      <c r="G32" t="n">
+        <v>3.339570024487245</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>BiLSTM</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>128</v>
+      </c>
+      <c r="C33" t="n">
+        <v>50</v>
+      </c>
+      <c r="D33" t="n">
+        <v>100</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1040.938058432879</v>
+      </c>
+      <c r="F33" t="n">
+        <v>954.9824015221683</v>
+      </c>
+      <c r="G33" t="n">
+        <v>4.694909902208498</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>BiLSTM</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>128</v>
+      </c>
+      <c r="C34" t="n">
+        <v>100</v>
+      </c>
+      <c r="D34" t="n">
+        <v>50</v>
+      </c>
+      <c r="E34" t="n">
+        <v>699.2036705099464</v>
+      </c>
+      <c r="F34" t="n">
+        <v>537.1007044021862</v>
+      </c>
+      <c r="G34" t="n">
+        <v>2.65463862057649</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>BiLSTM</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>128</v>
+      </c>
+      <c r="C35" t="n">
+        <v>100</v>
+      </c>
+      <c r="D35" t="n">
+        <v>60</v>
+      </c>
+      <c r="E35" t="n">
+        <v>536.0005143079031</v>
+      </c>
+      <c r="F35" t="n">
+        <v>400.8429274468236</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1.91661980661589</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>BiLSTM</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>128</v>
+      </c>
+      <c r="C36" t="n">
+        <v>100</v>
+      </c>
+      <c r="D36" t="n">
+        <v>100</v>
+      </c>
+      <c r="E36" t="n">
         <v>753.2475917538695</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F36" t="n">
         <v>595.0274736272098</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G36" t="n">
         <v>2.961325607106315</v>
       </c>
     </row>
